--- a/AmbitionBox-overalldata.xlsx
+++ b/AmbitionBox-overalldata.xlsx
@@ -435,19 +435,19 @@
         <v>4.0</v>
       </c>
       <c r="C2" t="str">
-        <v>2.7k</v>
+        <v>2.8k</v>
       </c>
       <c r="D2" t="str">
         <v>1.3k</v>
       </c>
       <c r="E2" t="str">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="F2" t="str">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G2" t="str">
-        <v>540</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -490,9 +490,9 @@
         <v>Dislikes</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>Marcom Manager</v>
+        <v>Senior Business Analyst</v>
       </c>
       <c r="B2" t="str">
         <v>Bangalore / Bengaluru</v>
@@ -501,235 +501,224 @@
         <v>Full Time</v>
       </c>
       <c r="E2" t="str">
-        <v>17 Apr 2024</v>
+        <v>28 Apr 2024</v>
       </c>
       <c r="F2" t="str">
         <v>1.0</v>
       </c>
       <c r="G2" t="str">
-        <v>There is absolutely nothing to like. All the reviews you see here are mostly fake and I was the part of Marcom team where we were constantly reaching out to employees ( the team still does) to help us with some reviews as the original rating of the company 8 months ago was 2.1. Anybody that joins this organisation leaves within months. Even the HR that hired me left within 2 months. People sit and play Ludo in the office and they only discuss about potluck. CMO of the company abuses and gossips in his cabin and makes fun of employees while my manager Shruthi Bojamma would body shame me and make comments on my personal and se&amp;ul life. When I tried to bring it to the management, I had to leave the organisation despite of me being the top performer and being recognised for it.  Better stay jobless than work here....Read More</v>
-      </c>
-      <c r="H2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Everything.
-Let me being with how my intern was told by someone in the team that if she wants a secure job, never to ask questions.
-1. My manager screamed at me saying I can’t let her see credit for the work. (Imagine that’s the leadership in this organisation)
-2. I never received my KRA ever and I was doing things that weren’t evenpart of the job they hired me.
-3. They have absolutely no budget and would pull cheap tricks like hiring interns only with IPhone as we are supposed to use our personal devices for company use.
-4. You are supposed to sit 9 hrs everyday even if you have no work. It is like a jail.
-5. If you want to get into depression, join this organisation. They will break you down and try their best to crush your dreams.
-6. Management has ego issues and does not think about company, and employee performance, rather they want people they can control and herd like a sheep.
-7. If you end up working under Shruthi Bojamma, in Quess or anywhere else, good luck, because being a deputy manager, she didn’t even know half the work that even freshers know today. And wouldn’t leave any stone unturned to take the credit of whatever you do.
-8. I am still waiting on the documents since I have put down papers, it’s been close to a month, imagine the reason I get for delay is that their team didn’t spell my name right in the email, which I am still waiting for them to learn and send over.
-9. Lastly my manager was so insecure, she told my reportees to not update me about any work as she works for the company and not for me. I mean after reading this review, you can get the reason
-They are trying to get younger crowd to join, but nobody wants to join this boomer place for obvious reason. Small egos and no will to work.
-Well… I can go on and on.. but I hope this review helps and saves someone’s life....Read More</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>Quess is such a pathetic company to work.They end their staff's contract without proper notice and show so much of unprofessional behaviour.</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Job security</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Vocational Trainer</v>
+        <v>Marketing Manager</v>
       </c>
       <c r="B3" t="str">
-        <v>Hosapete</v>
+        <v>New Delhi</v>
       </c>
       <c r="D3" t="str">
-        <v>Marketing Department</v>
+        <v>IT Infrastructure Services Department</v>
       </c>
       <c r="E3" t="str">
-        <v>17 Mar 2024</v>
+        <v>23 Apr 2024</v>
       </c>
       <c r="F3" t="str">
-        <v>5.0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Since I have joined as a vocational trainer on 2022 I have a very good experience and I'm happy also about my work too am.As quess is providing employment for us without any experience it s a good matter</v>
+        <v>1.0</v>
+      </c>
+      <c r="G3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Poor culture they are not allow to take leave even an emergency condition.
+they are not willing to get promoted .</v>
       </c>
       <c r="H3" t="str">
-        <v>Salary is quite is less and no increments</v>
+        <v>culture, rude behavior, poor enviornment</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Vice President Operations</v>
+        <v>Vocational Trainer</v>
       </c>
       <c r="B4" t="str">
-        <v>Bangalore / Bengaluru</v>
+        <v>Hosapete</v>
       </c>
       <c r="D4" t="str">
         <v>Full Time</v>
       </c>
       <c r="E4" t="str">
-        <v>05 Mar 2024</v>
+        <v>17 Mar 2024</v>
       </c>
       <c r="F4" t="str">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="str">
-        <v>It's an Indian company with a multinational culture. Gives the flexibility to work for an individual with very less</v>
+        <v>Since I have joined as a vocational trainer on 2022 I have a very good experience and I'm happy also about my work too am.As quess is providing employment for us without any experience it s a good matter</v>
       </c>
       <c r="H4" t="str">
-        <v>Management believes few of the initial people except that they don't believe the key people as well.</v>
+        <v>Salary is quite is less and no increments</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Senior Stylist</v>
+        <v>Vice President Operations</v>
       </c>
       <c r="B5" t="str">
-        <v>Hyderabad / Secunderabad</v>
+        <v>Bangalore / Bengaluru</v>
       </c>
       <c r="D5" t="str">
-        <v>Engineering Department</v>
+        <v>Marketing Department</v>
       </c>
       <c r="E5" t="str">
-        <v>26 Feb 2024</v>
+        <v>05 Mar 2024</v>
       </c>
       <c r="F5" t="str">
         <v>4.0</v>
       </c>
       <c r="G5" t="str">
-        <v>The first thing I like is we got salaries on time and that to on 1st day of the month</v>
+        <v>It's an Indian company with a multinational culture. Gives the flexibility to work for an individual with very less</v>
       </c>
       <c r="H5" t="str">
-        <v>It should be more good when compared to other companies.</v>
+        <v>Management believes few of the initial people except that they don't believe the key people as well.</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Senior Accounts Executive</v>
+        <v>Senior Stylist</v>
       </c>
       <c r="B6" t="str">
-        <v>Bangalore / Bengaluru (working remotely)</v>
+        <v>Hyderabad / Secunderabad</v>
       </c>
       <c r="D6" t="str">
         <v>Full Time</v>
       </c>
       <c r="E6" t="str">
-        <v>20 Feb 2024</v>
+        <v>26 Feb 2024</v>
       </c>
       <c r="F6" t="str">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="str">
-        <v>there is nothing to say about it</v>
+        <v>The first thing I like is we got salaries on time and that to on 1st day of the month</v>
       </c>
       <c r="H6" t="str">
-        <v>worst management, no recognition given to the employees, huge work pressure on single employee, kindly don't join here</v>
+        <v>It should be more good when compared to other companies.</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Data Center Engineer</v>
+        <v>Senior Accounts Executive</v>
       </c>
       <c r="B7" t="str">
-        <v>Hyderabad / Secunderabad</v>
+        <v>Bangalore / Bengaluru (working remotely)</v>
       </c>
       <c r="D7" t="str">
-        <v>Telecom Department</v>
+        <v>Engineering Department</v>
       </c>
       <c r="E7" t="str">
-        <v>10 Feb 2024</v>
+        <v>20 Feb 2024</v>
       </c>
       <c r="F7" t="str">
         <v>1.0</v>
       </c>
       <c r="G7" t="str">
-        <v>Didn't know till</v>
+        <v>there is nothing to say about it</v>
       </c>
       <c r="H7" t="str">
-        <v>Company for clients only, didn't care for employees and they do whatever client asks and forcing employees to do that</v>
+        <v>worst management, no recognition given to the employees, huge work pressure on single employee, kindly don't join here</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Field Engineer</v>
+        <v>Data Center Engineer</v>
       </c>
       <c r="B8" t="str">
-        <v>Biswan</v>
+        <v>Hyderabad / Secunderabad</v>
       </c>
       <c r="D8" t="str">
         <v>Full Time</v>
       </c>
       <c r="E8" t="str">
-        <v>05 Feb 2024</v>
+        <v>10 Feb 2024</v>
       </c>
       <c r="F8" t="str">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="str">
-        <v>Skilled IT Engineer with [1years] of experience in designing, implementing, and managing IT systems. Adept at troubleshooting complex technical issues and implementing effective solutions. Seeking to contribute technical expertise to a dynamic IT team.</v>
+        <v>Didn't know till</v>
       </c>
       <c r="H8" t="str">
-        <v>All best but tender only 1 year's</v>
+        <v>Company for clients only, didn't care for employees and they do whatever client asks and forcing employees to do that</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Back Office Operations Executive</v>
+        <v>Field Engineer</v>
       </c>
       <c r="B9" t="str">
-        <v>Mumbai</v>
+        <v>Biswan</v>
       </c>
       <c r="D9" t="str">
-        <v>Procurement &amp; Purchase Department</v>
+        <v>Telecom Department</v>
       </c>
       <c r="E9" t="str">
-        <v>02 Feb 2024</v>
+        <v>05 Feb 2024</v>
       </c>
       <c r="F9" t="str">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G9" t="str">
-        <v>I worked at wns on contracts basis of quess corp ltd, on contract you will get as fresher 13-18k but as you do overtime for months daily 1/2 hrs you will earn more than a exp person earns. So satisfied</v>
+        <v>Skilled IT Engineer with [1years] of experience in designing, implementing, and managing IT systems. Adept at troubleshooting complex technical issues and implementing effective solutions. Seeking to contribute technical expertise to a dynamic IT team.</v>
       </c>
       <c r="H9" t="str">
-        <v>Its good that they provide you knowledge about airlines industry but work life is not that balanced</v>
+        <v>All best but tender only 1 year's</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Recruitment Consultant</v>
+        <v>Back Office Operations Executive</v>
       </c>
       <c r="B10" t="str">
-        <v>Guwahati</v>
+        <v>Mumbai</v>
       </c>
       <c r="D10" t="str">
         <v>Full Time</v>
       </c>
       <c r="E10" t="str">
-        <v>29 Jan 2024</v>
+        <v>02 Feb 2024</v>
       </c>
       <c r="F10" t="str">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G10" t="str">
-        <v>I have learnt so many things  it was  my first job as a recruiter .I lost my job bcz the phonnpe  process was not have any recruitment in Ne .</v>
+        <v>I worked at wns on contracts basis of quess corp ltd, on contract you will get as fresher 13-18k but as you do overtime for months daily 1/2 hrs you will earn more than a exp person earns. So satisfied</v>
       </c>
       <c r="H10" t="str">
-        <v>They promised me that i will get an another job .But they never tried to call me .</v>
+        <v>Its good that they provide you knowledge about airlines industry but work life is not that balanced</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Assistant Manager</v>
+        <v>Recruitment Consultant</v>
       </c>
       <c r="B11" t="str">
-        <v>Noida</v>
+        <v>Guwahati</v>
       </c>
       <c r="D11" t="str">
-        <v>Finance Department</v>
+        <v>Procurement &amp; Purchase Department</v>
       </c>
       <c r="E11" t="str">
-        <v>27 Jan 2024</v>
+        <v>29 Jan 2024</v>
       </c>
       <c r="F11" t="str">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="G11" t="str">
-        <v>Worst company ever existed. No job security and it's like 10th fail students are your point of contact, HR, recruiter here. It's really frustating and noone will answer your queries here.</v>
+        <v>I have learnt so many things  it was  my first job as a recruiter .I lost my job bcz the phonnpe  process was not have any recruitment in Ne .</v>
       </c>
       <c r="H11" t="str">
-        <v>It's a sabzi Mandi not an organisation.</v>
+        <v>They promised me that i will get an another job .But they never tried to call me .</v>
       </c>
     </row>
   </sheetData>
